--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dll1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dll1-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Dll1</t>
   </si>
   <si>
     <t>Notch2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>9.854762333333333</v>
+        <v>16.39002933333333</v>
       </c>
       <c r="H2">
-        <v>29.564287</v>
+        <v>49.170088</v>
       </c>
       <c r="I2">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="J2">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N2">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O2">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P2">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q2">
-        <v>271.3587712280415</v>
+        <v>19.25719179804445</v>
       </c>
       <c r="R2">
-        <v>2442.228941052374</v>
+        <v>173.3147261824</v>
       </c>
       <c r="S2">
-        <v>0.09408895504716511</v>
+        <v>0.006505977099353073</v>
       </c>
       <c r="T2">
-        <v>0.09408895504716509</v>
+        <v>0.006505977099353072</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>9.854762333333333</v>
+        <v>16.39002933333333</v>
       </c>
       <c r="H3">
-        <v>29.564287</v>
+        <v>49.170088</v>
       </c>
       <c r="I3">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="J3">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>82.514188</v>
       </c>
       <c r="O3">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P3">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q3">
-        <v>271.0525706226618</v>
+        <v>450.8033205787272</v>
       </c>
       <c r="R3">
-        <v>2439.473135603956</v>
+        <v>4057.229885208544</v>
       </c>
       <c r="S3">
-        <v>0.0939827852894506</v>
+        <v>0.1523023767305135</v>
       </c>
       <c r="T3">
-        <v>0.09398278528945059</v>
+        <v>0.1523023767305136</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>9.854762333333333</v>
+        <v>16.39002933333333</v>
       </c>
       <c r="H4">
-        <v>29.564287</v>
+        <v>49.170088</v>
       </c>
       <c r="I4">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="J4">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N4">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O4">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P4">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q4">
-        <v>333.398711384812</v>
+        <v>645.1346317213015</v>
       </c>
       <c r="R4">
-        <v>3000.588402463308</v>
+        <v>5806.211685491712</v>
       </c>
       <c r="S4">
-        <v>0.1156002300065941</v>
+        <v>0.217956552751611</v>
       </c>
       <c r="T4">
-        <v>0.1156002300065941</v>
+        <v>0.217956552751611</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>9.854762333333333</v>
+        <v>16.39002933333333</v>
       </c>
       <c r="H5">
-        <v>29.564287</v>
+        <v>49.170088</v>
       </c>
       <c r="I5">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="J5">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N5">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O5">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P5">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q5">
-        <v>444.7430162564032</v>
+        <v>528.1192793282266</v>
       </c>
       <c r="R5">
-        <v>4002.687146307629</v>
+        <v>4753.07351395404</v>
       </c>
       <c r="S5">
-        <v>0.1542069396714792</v>
+        <v>0.1784233118239601</v>
       </c>
       <c r="T5">
-        <v>0.1542069396714792</v>
+        <v>0.1784233118239601</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2120556666666666</v>
+        <v>0.2120556666666667</v>
       </c>
       <c r="H6">
-        <v>0.6361669999999999</v>
+        <v>0.636167</v>
       </c>
       <c r="I6">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352934</v>
       </c>
       <c r="J6">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352935</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N6">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O6">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P6">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q6">
-        <v>5.839122567570443</v>
+        <v>0.2491512712888889</v>
       </c>
       <c r="R6">
-        <v>52.55210310813399</v>
+        <v>2.2423614416</v>
       </c>
       <c r="S6">
-        <v>0.002024614639463143</v>
+        <v>8.417491409338429E-05</v>
       </c>
       <c r="T6">
-        <v>0.002024614639463143</v>
+        <v>8.41749140933843E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2120556666666666</v>
+        <v>0.2120556666666667</v>
       </c>
       <c r="H7">
-        <v>0.6361669999999999</v>
+        <v>0.636167</v>
       </c>
       <c r="I7">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352934</v>
       </c>
       <c r="J7">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352935</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>82.514188</v>
       </c>
       <c r="O7">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P7">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q7">
         <v>5.832533715266222</v>
       </c>
       <c r="R7">
-        <v>52.492803437396</v>
+        <v>52.49280343739601</v>
       </c>
       <c r="S7">
-        <v>0.002022330069019893</v>
+        <v>0.001970501783472923</v>
       </c>
       <c r="T7">
-        <v>0.002022330069019892</v>
+        <v>0.001970501783472924</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2120556666666666</v>
+        <v>0.2120556666666667</v>
       </c>
       <c r="H8">
-        <v>0.6361669999999999</v>
+        <v>0.636167</v>
       </c>
       <c r="I8">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352934</v>
       </c>
       <c r="J8">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352935</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N8">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O8">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P8">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q8">
-        <v>7.174103607692</v>
+        <v>8.346809614378667</v>
       </c>
       <c r="R8">
-        <v>64.56693246922799</v>
+        <v>75.12128652940801</v>
       </c>
       <c r="S8">
-        <v>0.002487496198457448</v>
+        <v>0.002819941389861537</v>
       </c>
       <c r="T8">
-        <v>0.002487496198457448</v>
+        <v>0.002819941389861538</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2120556666666666</v>
+        <v>0.2120556666666667</v>
       </c>
       <c r="H9">
-        <v>0.6361669999999999</v>
+        <v>0.636167</v>
       </c>
       <c r="I9">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352934</v>
       </c>
       <c r="J9">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352935</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N9">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O9">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P9">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q9">
-        <v>9.570020424398775</v>
+        <v>6.832854510498333</v>
       </c>
       <c r="R9">
-        <v>86.13018381958898</v>
+        <v>61.495690594485</v>
       </c>
       <c r="S9">
-        <v>0.003318238866710566</v>
+        <v>0.002308456779925088</v>
       </c>
       <c r="T9">
-        <v>0.003318238866710566</v>
+        <v>0.002308456779925089</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.45582066666667</v>
+        <v>12.89091033333333</v>
       </c>
       <c r="H10">
-        <v>34.367462</v>
+        <v>38.672731</v>
       </c>
       <c r="I10">
-        <v>0.53226841021166</v>
+        <v>0.4366606914505164</v>
       </c>
       <c r="J10">
-        <v>0.53226841021166</v>
+        <v>0.4366606914505165</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N10">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O10">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P10">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q10">
-        <v>315.4451943504138</v>
+        <v>15.14596024764444</v>
       </c>
       <c r="R10">
-        <v>2839.006749153724</v>
+        <v>136.3136422288</v>
       </c>
       <c r="S10">
-        <v>0.1093751588598486</v>
+        <v>0.005117011428888263</v>
       </c>
       <c r="T10">
-        <v>0.1093751588598486</v>
+        <v>0.005117011428888263</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.45582066666667</v>
+        <v>12.89091033333333</v>
       </c>
       <c r="H11">
-        <v>34.367462</v>
+        <v>38.672731</v>
       </c>
       <c r="I11">
-        <v>0.53226841021166</v>
+        <v>0.4366606914505164</v>
       </c>
       <c r="J11">
-        <v>0.53226841021166</v>
+        <v>0.4366606914505165</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>82.514188</v>
       </c>
       <c r="O11">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P11">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q11">
-        <v>315.0892467278729</v>
+        <v>354.5609995786031</v>
       </c>
       <c r="R11">
-        <v>2835.803220550857</v>
+        <v>3191.048996207428</v>
       </c>
       <c r="S11">
-        <v>0.1092517401853579</v>
+        <v>0.1197872341810697</v>
       </c>
       <c r="T11">
-        <v>0.1092517401853579</v>
+        <v>0.1197872341810698</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.45582066666667</v>
+        <v>12.89091033333333</v>
       </c>
       <c r="H12">
-        <v>34.367462</v>
+        <v>38.672731</v>
       </c>
       <c r="I12">
-        <v>0.53226841021166</v>
+        <v>0.4366606914505164</v>
       </c>
       <c r="J12">
-        <v>0.53226841021166</v>
+        <v>0.4366606914505165</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N12">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O12">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P12">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q12">
-        <v>387.5644809011121</v>
+        <v>507.4043811217493</v>
       </c>
       <c r="R12">
-        <v>3488.080328110008</v>
+        <v>4566.639430095745</v>
       </c>
       <c r="S12">
-        <v>0.1343812726463819</v>
+        <v>0.1714248535461307</v>
       </c>
       <c r="T12">
-        <v>0.1343812726463819</v>
+        <v>0.1714248535461308</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>12.89091033333333</v>
+      </c>
+      <c r="H13">
+        <v>38.672731</v>
+      </c>
+      <c r="I13">
+        <v>0.4366606914505164</v>
+      </c>
+      <c r="J13">
+        <v>0.4366606914505165</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>32.221985</v>
+      </c>
+      <c r="N13">
+        <v>96.665955</v>
+      </c>
+      <c r="O13">
+        <v>0.3213744562815322</v>
+      </c>
+      <c r="P13">
+        <v>0.3213744562815322</v>
+      </c>
+      <c r="Q13">
+        <v>415.3707193970116</v>
+      </c>
+      <c r="R13">
+        <v>3738.336474573105</v>
+      </c>
+      <c r="S13">
+        <v>0.1403315922944276</v>
+      </c>
+      <c r="T13">
+        <v>0.1403315922944277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>11.45582066666667</v>
-      </c>
-      <c r="H13">
-        <v>34.367462</v>
-      </c>
-      <c r="I13">
-        <v>0.53226841021166</v>
-      </c>
-      <c r="J13">
-        <v>0.53226841021166</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>45.12975566666666</v>
-      </c>
-      <c r="N13">
-        <v>135.389267</v>
-      </c>
-      <c r="O13">
-        <v>0.3367854170582615</v>
-      </c>
-      <c r="P13">
-        <v>0.3367854170582615</v>
-      </c>
-      <c r="Q13">
-        <v>516.9983876478171</v>
-      </c>
-      <c r="R13">
-        <v>4652.985488830354</v>
-      </c>
-      <c r="S13">
-        <v>0.1792602385200718</v>
-      </c>
-      <c r="T13">
-        <v>0.1792602385200717</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02857733333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.085732</v>
+      </c>
+      <c r="I14">
+        <v>0.0009680152766929151</v>
+      </c>
+      <c r="J14">
+        <v>0.0009680152766929153</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.174933333333333</v>
+      </c>
+      <c r="N14">
+        <v>3.5248</v>
+      </c>
+      <c r="O14">
+        <v>0.01171850713626266</v>
+      </c>
+      <c r="P14">
+        <v>0.01171850713626266</v>
+      </c>
+      <c r="Q14">
+        <v>0.03357646151111111</v>
+      </c>
+      <c r="R14">
+        <v>0.3021881536</v>
+      </c>
+      <c r="S14">
+        <v>1.13436939279372E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.13436939279372E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02857733333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.085732</v>
+      </c>
+      <c r="I15">
+        <v>0.0009680152766929151</v>
+      </c>
+      <c r="J15">
+        <v>0.0009680152766929153</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>27.50472933333333</v>
+      </c>
+      <c r="N15">
+        <v>82.514188</v>
+      </c>
+      <c r="O15">
+        <v>0.2743256641287217</v>
+      </c>
+      <c r="P15">
+        <v>0.2743256641287218</v>
+      </c>
+      <c r="Q15">
+        <v>0.7860118184017778</v>
+      </c>
+      <c r="R15">
+        <v>7.074106365616</v>
+      </c>
+      <c r="S15">
+        <v>0.0002655514336655322</v>
+      </c>
+      <c r="T15">
+        <v>0.0002655514336655324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02857733333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.085732</v>
+      </c>
+      <c r="I16">
+        <v>0.0009680152766929151</v>
+      </c>
+      <c r="J16">
+        <v>0.0009680152766929153</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>39.361408</v>
+      </c>
+      <c r="N16">
+        <v>118.084224</v>
+      </c>
+      <c r="O16">
+        <v>0.3925813724534833</v>
+      </c>
+      <c r="P16">
+        <v>0.3925813724534833</v>
+      </c>
+      <c r="Q16">
+        <v>1.124844076885333</v>
+      </c>
+      <c r="R16">
+        <v>10.123596691968</v>
+      </c>
+      <c r="S16">
+        <v>0.0003800247658800431</v>
+      </c>
+      <c r="T16">
+        <v>0.0003800247658800432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02857733333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.085732</v>
+      </c>
+      <c r="I17">
+        <v>0.0009680152766929151</v>
+      </c>
+      <c r="J17">
+        <v>0.0009680152766929153</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>32.221985</v>
+      </c>
+      <c r="N17">
+        <v>96.665955</v>
+      </c>
+      <c r="O17">
+        <v>0.3213744562815322</v>
+      </c>
+      <c r="P17">
+        <v>0.3213744562815322</v>
+      </c>
+      <c r="Q17">
+        <v>0.9208184060066665</v>
+      </c>
+      <c r="R17">
+        <v>8.28736565406</v>
+      </c>
+      <c r="S17">
+        <v>0.0003110953832194025</v>
+      </c>
+      <c r="T17">
+        <v>0.0003110953832194026</v>
       </c>
     </row>
   </sheetData>
